--- a/Reports/Doc/เงื่อนไขรายงานพิเศษ_ยอดขามตามประเภท-ข้อมู.xlsx
+++ b/Reports/Doc/เงื่อนไขรายงานพิเศษ_ยอดขามตามประเภท-ข้อมู.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanyatat-vongchant\Desktop\アニメイト\01 海外事業部\【海外店舗】\02 バンコク\AdaSoft\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="9792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24045" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="การขายตามประเภทสินค้า" sheetId="1" r:id="rId1"/>
     <sheet name="ข้อมูลการขาย" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>เลือกเงื่อนไขได้ 1. แสดงสินค้าทั้งหมด 2. แสดงเฉพาะสินค้าที่คงคลังไม่เท่ากับ 0</t>
     <phoneticPr fontId="1"/>
@@ -87,12 +83,54 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>FTBchCode</t>
+  </si>
+  <si>
+    <t>FTPtyCode</t>
+  </si>
+  <si>
+    <t>FTPdtCode</t>
+  </si>
+  <si>
+    <t>FCXsdSaleTotal</t>
+  </si>
+  <si>
+    <t>FCStkQty</t>
+  </si>
+  <si>
+    <t>FCSalAmtBal</t>
+  </si>
+  <si>
+    <t>K00020</t>
+  </si>
+  <si>
+    <t>L00012800350000250</t>
+  </si>
+  <si>
+    <t>SK0020</t>
+  </si>
+  <si>
+    <t>Z00003</t>
+  </si>
+  <si>
+    <t>FCXsdCostAvg</t>
+  </si>
+  <si>
+    <t>FCXsdQtyAll</t>
+  </si>
+  <si>
+    <t>FCStkQtyBal</t>
+  </si>
+  <si>
+    <t>FCStkCostBal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -148,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,9 +196,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,13 +223,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>111318</xdr:rowOff>
+      <xdr:rowOff>111319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>215879</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -197,7 +238,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -205,14 +246,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="1" b="79585"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1232452"/>
-          <a:ext cx="8062623" cy="11403364"/>
+          <a:off x="0" y="1540069"/>
+          <a:ext cx="6861810" cy="2403281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,30 +579,30 @@
   <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -582,37 +622,37 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -623,4 +663,1015 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4">
+        <v>249995</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5749885</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>9662.92</v>
+      </c>
+      <c r="L4">
+        <v>3661631.5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>139174910.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4823.0200000000004</v>
+      </c>
+      <c r="F5">
+        <v>2795679</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>315</v>
+      </c>
+      <c r="L5">
+        <v>5500</v>
+      </c>
+      <c r="M5" s="3">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2437.6999999999998</v>
+      </c>
+      <c r="F6">
+        <v>101000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>129583000</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>540</v>
+      </c>
+      <c r="F7">
+        <v>404000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>194.18299999999999</v>
+      </c>
+      <c r="L7">
+        <v>-16</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>213.5</v>
+      </c>
+      <c r="F8">
+        <v>100990</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3080195</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2000002</v>
+      </c>
+      <c r="E9">
+        <v>122</v>
+      </c>
+      <c r="F9">
+        <v>1494</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45567</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>600</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>200031</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1495.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10468.5</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>338</v>
+      </c>
+      <c r="L10">
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>106.1</v>
+      </c>
+      <c r="F11">
+        <v>2495</v>
+      </c>
+      <c r="G11" s="3">
+        <v>112275</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>900</v>
+      </c>
+      <c r="F12">
+        <v>499</v>
+      </c>
+      <c r="G12" s="3">
+        <v>449100</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>115.1</v>
+      </c>
+      <c r="F13">
+        <v>2490</v>
+      </c>
+      <c r="G13" s="3">
+        <v>114540</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>55.5</v>
+      </c>
+      <c r="F14">
+        <v>1494</v>
+      </c>
+      <c r="G14" s="3">
+        <v>29880</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="G15" s="3">
+        <f>SUM(G4:G14)</f>
+        <v>139174910.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>270</v>
+      </c>
+      <c r="F16">
+        <v>5500</v>
+      </c>
+      <c r="G16" s="3">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>-4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>-9</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>13.433</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2000002</v>
+      </c>
+      <c r="E22">
+        <v>45.75</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>-6</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>200009</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>200031</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>900</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>600</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>200</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>315</v>
+      </c>
+      <c r="F32">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="D40" s="3">
+        <v>529.898101</v>
+      </c>
+      <c r="E40" s="3">
+        <v>12140.102999999999</v>
+      </c>
+      <c r="F40" s="3">
+        <v>241908791.12134701</v>
+      </c>
+      <c r="G40" s="3">
+        <v>139257410.5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>10319.6428</v>
+      </c>
+      <c r="L40">
+        <v>156.28</v>
+      </c>
+      <c r="M40">
+        <v>9662.92</v>
+      </c>
+      <c r="N40">
+        <v>3661631.5</v>
+      </c>
+      <c r="O40">
+        <v>241788640.99660301</v>
+      </c>
+      <c r="P40">
+        <v>139174910.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>219</v>
+      </c>
+      <c r="E41">
+        <v>250</v>
+      </c>
+      <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
+        <v>5000</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>185</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>315</v>
+      </c>
+      <c r="N41">
+        <v>5500</v>
+      </c>
+      <c r="O41">
+        <v>101750</v>
+      </c>
+      <c r="P41">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>105.9962</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>30</v>
+      </c>
+      <c r="N42">
+        <v>-4</v>
+      </c>
+      <c r="O42">
+        <v>-211.9924</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>213.49825000000001</v>
+      </c>
+      <c r="L43">
+        <v>8.5</v>
+      </c>
+      <c r="M43">
+        <v>194.18299999999999</v>
+      </c>
+      <c r="N43">
+        <v>-16</v>
+      </c>
+      <c r="O43">
+        <v>-401.87905599999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>1306.9981</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
+      <c r="O44">
+        <v>2613.9962</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>60</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>600</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>205</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>338</v>
+      </c>
+      <c r="N46">
+        <v>800</v>
+      </c>
+      <c r="O46">
+        <v>16400</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="K47">
+        <f>SUM(K40:K46)</f>
+        <v>12396.13535</v>
+      </c>
+      <c r="L47">
+        <f>SUM(L40:L46)</f>
+        <v>193.78</v>
+      </c>
+      <c r="M47">
+        <f>SUM(M40:M46)</f>
+        <v>12140.102999999999</v>
+      </c>
+      <c r="N47">
+        <f>SUM(N40:N46)</f>
+        <v>3667919.5</v>
+      </c>
+      <c r="O47">
+        <f>SUM(O40:O46)</f>
+        <v>241908791.12134701</v>
+      </c>
+      <c r="P47">
+        <f>SUM(P40:P46)</f>
+        <v>139257410.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="K48">
+        <f>K47/L47</f>
+        <v>63.970148364124263</v>
+      </c>
+    </row>
+    <row r="49" spans="9:16">
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>214</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>200</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16">
+      <c r="I50">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>50</v>
+      </c>
+      <c r="N50">
+        <v>200</v>
+      </c>
+      <c r="O50">
+        <v>1000</v>
+      </c>
+      <c r="P50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16">
+      <c r="K51">
+        <f>SUM(K49:K50)</f>
+        <v>224</v>
+      </c>
+      <c r="L51">
+        <f>SUM(L49:L50)</f>
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <f>SUM(M49:M50)</f>
+        <v>250</v>
+      </c>
+      <c r="N51">
+        <f>SUM(N49:N50)</f>
+        <v>200</v>
+      </c>
+      <c r="O51">
+        <f>SUM(O49:O50)</f>
+        <v>1000</v>
+      </c>
+      <c r="P51">
+        <f>SUM(P49:P50)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16">
+      <c r="K52">
+        <f>K51/L51</f>
+        <v>74.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>